--- a/biology/Médecine/Alice_B._Stockham/Alice_B._Stockham.xlsx
+++ b/biology/Médecine/Alice_B._Stockham/Alice_B._Stockham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Bunker Stockham (8 novembre 1833 - 3 décembre 1912) est une obstétricienne et gynécologue de Chicago et la cinquième femme ayant obtenu le titre de docteur en médecine aux États-Unis. Elle a milité pour l’égalité des sexes, la réforme de l’habillement, le contrôle des naissances et la satisfaction sexuelle masculine et féminine, afin que les mariages soient heureux.
 C’est une femme qui a beaucoup voyagé et lu et qui comptait Léon Tolstoï parmi ses amis. Elle a donné des conférences pour s’opposer au port du corset par les femmes ; elle a pris publiquement part en faveur de la masturbation tant pour les femmes que pour les hommes, tout en plaidant l’abstinence complète de tabac et d’alcool. Plus largement, elle était adepte de l’émancipation féminine.
